--- a/AAII_Financials/Quarterly/ORPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORPH_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -820,25 +820,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>40200</v>
+        <v>38800</v>
       </c>
       <c r="E12" s="3">
-        <v>29500</v>
+        <v>28500</v>
       </c>
       <c r="F12" s="3">
-        <v>25400</v>
+        <v>24500</v>
       </c>
       <c r="G12" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="H12" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="I12" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="J12" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -946,25 +946,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>72700</v>
+        <v>70200</v>
       </c>
       <c r="E17" s="3">
-        <v>55100</v>
+        <v>53200</v>
       </c>
       <c r="F17" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="G17" s="3">
-        <v>26000</v>
+        <v>25100</v>
       </c>
       <c r="H17" s="3">
-        <v>25100</v>
+        <v>24200</v>
       </c>
       <c r="I17" s="3">
-        <v>18600</v>
+        <v>17900</v>
       </c>
       <c r="J17" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -975,7 +975,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-70700</v>
+        <v>-68300</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-68200</v>
+        <v>-65900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1104,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-70800</v>
+        <v>-68400</v>
       </c>
       <c r="E23" s="3">
-        <v>-58000</v>
+        <v>-56000</v>
       </c>
       <c r="F23" s="3">
-        <v>-38500</v>
+        <v>-37200</v>
       </c>
       <c r="G23" s="3">
-        <v>-26800</v>
+        <v>-25900</v>
       </c>
       <c r="H23" s="3">
-        <v>-25300</v>
+        <v>-24400</v>
       </c>
       <c r="I23" s="3">
-        <v>-19000</v>
+        <v>-18400</v>
       </c>
       <c r="J23" s="3">
-        <v>-16700</v>
+        <v>-16100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1133,7 +1133,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>-300</v>
       </c>
       <c r="G24" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="H24" s="3">
         <v>-400</v>
@@ -1191,25 +1191,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-70400</v>
+        <v>-68000</v>
       </c>
       <c r="E26" s="3">
-        <v>-58000</v>
+        <v>-56000</v>
       </c>
       <c r="F26" s="3">
-        <v>-38200</v>
+        <v>-36900</v>
       </c>
       <c r="G26" s="3">
-        <v>-26400</v>
+        <v>-25500</v>
       </c>
       <c r="H26" s="3">
-        <v>-24900</v>
+        <v>-24000</v>
       </c>
       <c r="I26" s="3">
-        <v>-18500</v>
+        <v>-17900</v>
       </c>
       <c r="J26" s="3">
-        <v>-16400</v>
+        <v>-15800</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1220,25 +1220,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70400</v>
+        <v>-68000</v>
       </c>
       <c r="E27" s="3">
-        <v>-58000</v>
+        <v>-56000</v>
       </c>
       <c r="F27" s="3">
-        <v>-38200</v>
+        <v>-36900</v>
       </c>
       <c r="G27" s="3">
-        <v>-26400</v>
+        <v>-25500</v>
       </c>
       <c r="H27" s="3">
-        <v>-24900</v>
+        <v>-24000</v>
       </c>
       <c r="I27" s="3">
-        <v>-18500</v>
+        <v>-17900</v>
       </c>
       <c r="J27" s="3">
-        <v>-16400</v>
+        <v>-15800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1394,25 +1394,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70400</v>
+        <v>-68000</v>
       </c>
       <c r="E33" s="3">
-        <v>-58000</v>
+        <v>-56000</v>
       </c>
       <c r="F33" s="3">
-        <v>-38200</v>
+        <v>-36900</v>
       </c>
       <c r="G33" s="3">
-        <v>-26400</v>
+        <v>-25500</v>
       </c>
       <c r="H33" s="3">
-        <v>-24900</v>
+        <v>-24000</v>
       </c>
       <c r="I33" s="3">
-        <v>-18500</v>
+        <v>-17900</v>
       </c>
       <c r="J33" s="3">
-        <v>-16400</v>
+        <v>-15800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1452,25 +1452,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70400</v>
+        <v>-68000</v>
       </c>
       <c r="E35" s="3">
-        <v>-58000</v>
+        <v>-56000</v>
       </c>
       <c r="F35" s="3">
-        <v>-38200</v>
+        <v>-36900</v>
       </c>
       <c r="G35" s="3">
-        <v>-26400</v>
+        <v>-25500</v>
       </c>
       <c r="H35" s="3">
-        <v>-24900</v>
+        <v>-24000</v>
       </c>
       <c r="I35" s="3">
-        <v>-18500</v>
+        <v>-17900</v>
       </c>
       <c r="J35" s="3">
-        <v>-16400</v>
+        <v>-15800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1541,19 +1541,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50700</v>
+        <v>49000</v>
       </c>
       <c r="E41" s="3">
-        <v>110400</v>
+        <v>106600</v>
       </c>
       <c r="F41" s="3">
-        <v>92700</v>
+        <v>89500</v>
       </c>
       <c r="G41" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="H41" s="3">
-        <v>34300</v>
+        <v>33100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1599,7 +1599,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
@@ -1657,19 +1657,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="E45" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="F45" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G45" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>61300</v>
+        <v>59200</v>
       </c>
       <c r="E46" s="3">
-        <v>119000</v>
+        <v>115000</v>
       </c>
       <c r="F46" s="3">
-        <v>96900</v>
+        <v>93600</v>
       </c>
       <c r="G46" s="3">
-        <v>22500</v>
+        <v>21700</v>
       </c>
       <c r="H46" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1744,19 +1744,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H48" s="3">
         <v>2100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1776,16 +1776,16 @@
         <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F49" s="3">
         <v>1600</v>
       </c>
       <c r="G49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1869,7 +1869,7 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -1918,19 +1918,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65000</v>
+        <v>62800</v>
       </c>
       <c r="E54" s="3">
-        <v>124900</v>
+        <v>120700</v>
       </c>
       <c r="F54" s="3">
-        <v>102700</v>
+        <v>99200</v>
       </c>
       <c r="G54" s="3">
-        <v>27400</v>
+        <v>26500</v>
       </c>
       <c r="H54" s="3">
-        <v>42400</v>
+        <v>40900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1973,19 +1973,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="E57" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="F57" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="G57" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="H57" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2002,13 +2002,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E58" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F58" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G58" s="3">
         <v>1900</v>
@@ -2031,16 +2031,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="E59" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="F59" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="G59" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H59" s="3">
         <v>2200</v>
@@ -2060,19 +2060,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34000</v>
+        <v>32800</v>
       </c>
       <c r="E60" s="3">
-        <v>25300</v>
+        <v>24400</v>
       </c>
       <c r="F60" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="G60" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="H60" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2089,16 +2089,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E61" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F61" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G61" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="H61" s="3">
         <v>1400</v>
@@ -2118,7 +2118,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -2234,19 +2234,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39700</v>
+        <v>38300</v>
       </c>
       <c r="E66" s="3">
-        <v>30700</v>
+        <v>29600</v>
       </c>
       <c r="F66" s="3">
-        <v>25900</v>
+        <v>25000</v>
       </c>
       <c r="G66" s="3">
-        <v>19400</v>
+        <v>18700</v>
       </c>
       <c r="H66" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2392,19 +2392,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-296300</v>
+        <v>-286300</v>
       </c>
       <c r="E72" s="3">
-        <v>-227400</v>
+        <v>-219600</v>
       </c>
       <c r="F72" s="3">
-        <v>-172000</v>
+        <v>-166100</v>
       </c>
       <c r="G72" s="3">
-        <v>-135300</v>
+        <v>-130700</v>
       </c>
       <c r="H72" s="3">
-        <v>-109200</v>
+        <v>-105500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2508,19 +2508,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="E76" s="3">
-        <v>94200</v>
+        <v>91000</v>
       </c>
       <c r="F76" s="3">
-        <v>76900</v>
+        <v>74200</v>
       </c>
       <c r="G76" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="H76" s="3">
-        <v>34100</v>
+        <v>33000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2600,25 +2600,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70400</v>
+        <v>-68000</v>
       </c>
       <c r="E81" s="3">
-        <v>-58000</v>
+        <v>-56000</v>
       </c>
       <c r="F81" s="3">
-        <v>-38200</v>
+        <v>-36900</v>
       </c>
       <c r="G81" s="3">
-        <v>-26400</v>
+        <v>-25500</v>
       </c>
       <c r="H81" s="3">
-        <v>-24900</v>
+        <v>-24000</v>
       </c>
       <c r="I81" s="3">
-        <v>-18500</v>
+        <v>-17900</v>
       </c>
       <c r="J81" s="3">
-        <v>-16400</v>
+        <v>-15800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2642,7 +2642,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -2816,25 +2816,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-58000</v>
+        <v>-56000</v>
       </c>
       <c r="E89" s="3">
-        <v>-50900</v>
+        <v>-49100</v>
       </c>
       <c r="F89" s="3">
-        <v>-31000</v>
+        <v>-29900</v>
       </c>
       <c r="G89" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="H89" s="3">
-        <v>-25300</v>
+        <v>-24400</v>
       </c>
       <c r="I89" s="3">
-        <v>-17700</v>
+        <v>-17100</v>
       </c>
       <c r="J89" s="3">
-        <v>-17900</v>
+        <v>-17300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -2867,7 +2867,7 @@
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -3103,16 +3103,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E100" s="3">
-        <v>70800</v>
+        <v>68400</v>
       </c>
       <c r="F100" s="3">
-        <v>105200</v>
+        <v>101600</v>
       </c>
       <c r="G100" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="H100" s="3">
         <v>-200</v>
@@ -3135,7 +3135,7 @@
         <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3161,25 +3161,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-59600</v>
+        <v>-57600</v>
       </c>
       <c r="E102" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="F102" s="3">
-        <v>73900</v>
+        <v>71400</v>
       </c>
       <c r="G102" s="3">
-        <v>-15500</v>
+        <v>-15000</v>
       </c>
       <c r="H102" s="3">
-        <v>-25700</v>
+        <v>-24800</v>
       </c>
       <c r="I102" s="3">
-        <v>-18000</v>
+        <v>-17400</v>
       </c>
       <c r="J102" s="3">
-        <v>-18000</v>
+        <v>-17400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
